--- a/python-timesheet-parsing/sample_timesheets/SBAL241018 - should flag.xlsx
+++ b/python-timesheet-parsing/sample_timesheets/SBAL241018 - should flag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7a48ca9db46ee7/Documents/Github/creative-writing-metrics/python-timesheet-parsing/sample_timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8CD6E386-2DEF-4599-82C0-B77757E3771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8644F8-111C-4749-A8F3-F84F62ECEF8C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8CD6E386-2DEF-4599-82C0-B77757E3771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C727641-422C-4281-A51C-2DBD65D568A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time " sheetId="1" r:id="rId1"/>
@@ -1061,15 +1061,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1088,51 +1133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,45 +1149,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1552575" cy="628650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,19 +1355,19 @@
   <dimension ref="A1:O987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="12" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="53.7265625" customWidth="1"/>
+    <col min="5" max="12" width="8.7265625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
     <col min="16" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1431,20 +1392,20 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="7"/>
       <c r="N2" s="4"/>
     </row>
@@ -1453,30 +1414,30 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="90">
         <v>45583</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="93" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1500,7 +1461,7 @@
       <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="95" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="11"/>
@@ -1508,9 +1469,9 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="12">
         <f t="shared" ref="E5:J5" si="0">IF(($C$3=""),"",(F5-1))</f>
         <v>45577</v>
@@ -1539,7 +1500,7 @@
         <f>IF(($C$3=""),"",C3)</f>
         <v>45583</v>
       </c>
-      <c r="L5" s="71"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="11"/>
       <c r="N5" s="4"/>
     </row>
@@ -1589,7 +1550,7 @@
       <c r="L8" s="23"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" ht="15.5">
       <c r="A9" s="19"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1622,24 +1583,24 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="26"/>
       <c r="M11" s="11"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="25"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
@@ -1670,8 +1631,8 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
@@ -1746,24 +1707,24 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="26"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="17"/>
@@ -1776,11 +1737,11 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="25"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="78"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="15"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
@@ -1811,56 +1772,56 @@
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="88" t="s">
+      <c r="C23" s="61"/>
+      <c r="D23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="84" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="96">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="81">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="L25" s="87"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
@@ -1872,20 +1833,20 @@
         <f>C3</f>
         <v>45583</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="84" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="86">
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68">
         <f>K23+K24</f>
         <v>0</v>
       </c>
-      <c r="L26" s="87"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="43"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -18226,6 +18187,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:C25"/>
     <mergeCell ref="G26:J26"/>
@@ -18237,22 +18210,9 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>